--- a/biology/Virologie/Deltacoronavirus/Deltacoronavirus.xlsx
+++ b/biology/Virologie/Deltacoronavirus/Deltacoronavirus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Deltacoronavirus (δ-coronavirus ou Delta-CoV) est un des quatre genres de coronavirus. Il appartient à la sous-famille des Orthocoronavirinae de la famille des Coronaviridae. Les espèces de Deltacoronavirus infectent principalement les oiseaux et quelques mammifères.
-Alors que les espèces d’Alphacoronavirus et de Betacoronavirus ont comme réservoir principal les chauves-souris, les espèces de Gammacoronavirus et Deltacoronavirus sont trouvées principalement chez les oiseaux et les porcs[2].
-La recombinaison génétique semble répandue chez les Deltacoronavirus[3]. La recombinaison entre différentes lignées conduit à l'émergence de nouveaux virus capables de traverser la barrière des espèces et de s'adapter à de nouveaux hôtes[3].
+Alors que les espèces d’Alphacoronavirus et de Betacoronavirus ont comme réservoir principal les chauves-souris, les espèces de Gammacoronavirus et Deltacoronavirus sont trouvées principalement chez les oiseaux et les porcs.
+La recombinaison génétique semble répandue chez les Deltacoronavirus. La recombinaison entre différentes lignées conduit à l'émergence de nouveaux virus capables de traverser la barrière des espèces et de s'adapter à de nouveaux hôtes.
 Ce genre contient notamment le coronavirus HKU15.
 </t>
         </is>
